--- a/BackTest/2020-01-13 BackTest BSV.xlsx
+++ b/BackTest/2020-01-13 BackTest BSV.xlsx
@@ -10881,14 +10881,20 @@
         <v>174206.6666666667</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>169100</v>
+      </c>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10922,20 @@
         <v>174085</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>169400</v>
+      </c>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10951,14 +10963,20 @@
         <v>173948.3333333333</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>168600</v>
+      </c>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10986,14 +11004,20 @@
         <v>173808.3333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>167800</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11021,14 +11045,20 @@
         <v>173681.6666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>167500</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11056,14 +11086,20 @@
         <v>173568.3333333333</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>168400</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11091,14 +11127,20 @@
         <v>173445</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>169500</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11126,14 +11168,20 @@
         <v>173326.6666666667</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>168800</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11161,14 +11209,20 @@
         <v>173220</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>169000</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11196,14 +11250,20 @@
         <v>173126.6666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>169800</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11231,14 +11291,20 @@
         <v>173016.6666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>170300</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11266,14 +11332,20 @@
         <v>172900</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>169800</v>
+      </c>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11301,14 +11373,20 @@
         <v>172773.3333333333</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>169800</v>
+      </c>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +11421,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11460,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +11499,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11441,18 +11531,16 @@
         <v>172261.6666666667</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>169100</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M316" t="n">
@@ -11482,14 +11570,12 @@
         <v>172133.3333333333</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>168600</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -11523,14 +11609,12 @@
         <v>172003.3333333333</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>168100</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -11564,14 +11648,12 @@
         <v>171886.6666666667</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>168400</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -11605,14 +11687,12 @@
         <v>171785</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>168800</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -11646,14 +11726,12 @@
         <v>171683.3333333333</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -11687,14 +11765,12 @@
         <v>171586.6666666667</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -11728,14 +11804,12 @@
         <v>171491.6666666667</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>169600</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -11769,14 +11843,12 @@
         <v>171400</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>169800</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -11810,14 +11882,12 @@
         <v>171290</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -11851,14 +11921,12 @@
         <v>171183.3333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>169200</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -11892,14 +11960,12 @@
         <v>171070</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>169300</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -11933,14 +11999,12 @@
         <v>170951.6666666667</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>168900</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -11974,14 +12038,12 @@
         <v>170841.6666666667</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>168700</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12015,14 +12077,12 @@
         <v>170730</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>169100</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12056,14 +12116,12 @@
         <v>170601.6666666667</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>168400</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12097,14 +12155,12 @@
         <v>170488.3333333333</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>168000</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12138,14 +12194,12 @@
         <v>170378.3333333333</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>167600</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12179,14 +12233,12 @@
         <v>170256.6666666667</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>167300</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12220,14 +12272,12 @@
         <v>170148.3333333333</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>166500</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12261,14 +12311,12 @@
         <v>170038.3333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>167200</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12302,14 +12350,12 @@
         <v>169941.6666666667</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>167400</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12343,14 +12389,12 @@
         <v>169848.3333333333</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>168000</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12384,14 +12428,12 @@
         <v>169750</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>168000</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12425,14 +12467,12 @@
         <v>169653.3333333333</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>167800</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -12466,14 +12506,12 @@
         <v>169561.6666666667</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>167900</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12507,14 +12545,12 @@
         <v>169475</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>168300</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -12548,14 +12584,12 @@
         <v>169401.6666666667</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>168300</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -12589,14 +12623,12 @@
         <v>169341.6666666667</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>168800</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -12630,14 +12662,12 @@
         <v>169280</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>168800</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -12671,14 +12701,12 @@
         <v>169215</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>168400</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -12712,14 +12740,12 @@
         <v>169153.3333333333</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>168100</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -12753,14 +12779,12 @@
         <v>169080</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>168700</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12794,14 +12818,12 @@
         <v>169023.3333333333</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>168600</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12835,14 +12857,12 @@
         <v>168983.3333333333</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>168700</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -12876,14 +12896,12 @@
         <v>168941.6666666667</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>169000</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -12917,14 +12935,12 @@
         <v>168906.6666666667</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>169300</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -12958,14 +12974,12 @@
         <v>168868.3333333333</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -12999,14 +13013,12 @@
         <v>168841.6666666667</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>169200</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13040,14 +13052,12 @@
         <v>168820</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13081,14 +13091,12 @@
         <v>168803.3333333333</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>169300</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13122,14 +13130,12 @@
         <v>168798.3333333333</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
@@ -13163,14 +13169,12 @@
         <v>168801.6666666667</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -13204,14 +13208,12 @@
         <v>168808.3333333333</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>169300</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13245,14 +13247,12 @@
         <v>168815</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>169500</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13286,14 +13286,12 @@
         <v>168836.6666666667</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>169800</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13327,14 +13325,12 @@
         <v>168876.6666666667</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>169900</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13368,14 +13364,12 @@
         <v>168940</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>170200</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13409,14 +13403,12 @@
         <v>168985</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>171100</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13450,14 +13442,12 @@
         <v>169016.6666666667</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>171800</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13491,14 +13481,12 @@
         <v>169065</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>171400</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -26834,16 +26822,18 @@
         <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M708" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M708" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -26871,11 +26861,15 @@
         <v>0</v>
       </c>
       <c r="I709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -26910,7 +26904,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -26945,7 +26943,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -26980,7 +26982,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27015,7 +27021,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27050,7 +27060,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27085,7 +27099,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27120,7 +27138,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27155,7 +27177,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27190,7 +27216,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27225,7 +27255,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27256,14 +27290,16 @@
         <v>0</v>
       </c>
       <c r="I720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
-      <c r="M720" t="n">
-        <v>1</v>
-      </c>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -27291,7 +27327,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>

--- a/BackTest/2020-01-13 BackTest BSV.xlsx
+++ b/BackTest/2020-01-13 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5170,7 +5170,7 @@
         <v>171.6197582399996</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>171.9297582399996</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>185.2556148699996</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>185.2556148699996</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>185.2556148699996</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -12133,11 +12133,17 @@
         <v>-1437.32665853</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>170500</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12176,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12213,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12250,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12287,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12324,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12357,17 @@
         <v>-2107.09665853</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>167800</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12396,17 @@
         <v>-2084.74815853</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>167500</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12435,17 @@
         <v>-1781.61876087</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>168400</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12474,17 @@
         <v>-1931.66820494</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>169500</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12517,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12550,17 @@
         <v>-1740.64854115</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>169000</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12589,17 @@
         <v>-1733.21604115</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>169800</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12628,17 @@
         <v>-1741.41334115</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>170300</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12667,17 @@
         <v>-1741.41334115</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>169800</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12706,17 @@
         <v>-1796.00994115</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>169800</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12745,17 @@
         <v>-1729.71754115</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>169500</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12784,17 @@
         <v>-1731.80824115</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>169700</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12823,17 @@
         <v>-1739.860341150001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>169200</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12862,17 @@
         <v>-1769.092941150001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>169100</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12901,17 @@
         <v>-1794.537741150001</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>168500</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12940,17 @@
         <v>-1608.895441150001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>168300</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12979,17 @@
         <v>-1443.259141150001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>168400</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13018,17 @@
         <v>-1223.120541150001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>168900</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13057,17 @@
         <v>-1186.435841150001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>169400</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13100,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13137,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13174,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13211,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13244,17 @@
         <v>-1215.805741150001</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>169000</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13283,17 @@
         <v>-1220.830641150001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>169500</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13322,17 @@
         <v>-1237.592941150001</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>168900</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13361,17 @@
         <v>-1107.634041150001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>168700</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13400,17 @@
         <v>-1210.499941150001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>169200</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13439,17 @@
         <v>-1502.527041150001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>168500</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13478,17 @@
         <v>-1453.893041150001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>167500</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13517,17 @@
         <v>-1612.857864980001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>167600</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13556,17 @@
         <v>-1784.010964980001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>167400</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13595,17 @@
         <v>-1765.864564980001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>166500</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,15 +13634,17 @@
         <v>-1719.64073368</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>167000</v>
       </c>
-      <c r="J395" t="n">
-        <v>167000</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,17 +13673,15 @@
         <v>-1544.043564980001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I396" t="n">
         <v>167400</v>
       </c>
-      <c r="J396" t="n">
-        <v>167000</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L396" t="n">
@@ -13498,17 +13712,15 @@
         <v>-1509.753064980001</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I397" t="n">
         <v>167900</v>
       </c>
-      <c r="J397" t="n">
-        <v>167000</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L397" t="n">
@@ -13539,11 +13751,17 @@
         <v>-1566.001864980001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>168200</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13572,15 +13790,17 @@
         <v>-1565.968964980001</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>167700</v>
       </c>
-      <c r="J399" t="n">
-        <v>167700</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13609,17 +13829,15 @@
         <v>-1528.057164980001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>167900</v>
       </c>
-      <c r="J400" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13650,17 +13868,15 @@
         <v>-1414.751764980001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>168200</v>
       </c>
-      <c r="J401" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -13691,17 +13907,15 @@
         <v>-1348.239064980001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>168300</v>
       </c>
-      <c r="J402" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -13732,14 +13946,12 @@
         <v>-1278.329664980001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>168800</v>
       </c>
-      <c r="J403" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13773,14 +13985,12 @@
         <v>-1314.013762670001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>169200</v>
       </c>
-      <c r="J404" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13814,14 +14024,12 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>168900</v>
       </c>
-      <c r="J405" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13855,14 +14063,12 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>168600</v>
       </c>
-      <c r="J406" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13896,14 +14102,12 @@
         <v>-1474.413462670001</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>168600</v>
       </c>
-      <c r="J407" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13937,14 +14141,12 @@
         <v>-1472.615262670001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>168300</v>
       </c>
-      <c r="J408" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13978,14 +14180,12 @@
         <v>-1437.882662670001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>168600</v>
       </c>
-      <c r="J409" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14019,14 +14219,12 @@
         <v>-1416.000034430001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>169000</v>
       </c>
-      <c r="J410" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14060,14 +14258,12 @@
         <v>-1378.033634430001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>169300</v>
       </c>
-      <c r="J411" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14101,14 +14297,12 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>169400</v>
       </c>
-      <c r="J412" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14142,14 +14336,12 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>169200</v>
       </c>
-      <c r="J413" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14183,12 +14375,12 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>169200</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14222,14 +14414,12 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>169500</v>
       </c>
-      <c r="J415" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14263,12 +14453,12 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>169500</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,12 +14492,12 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>169500</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14341,14 +14531,12 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>169500</v>
       </c>
-      <c r="J418" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14382,14 +14570,12 @@
         <v>-1265.248831780001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>169500</v>
       </c>
-      <c r="J419" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14423,14 +14609,12 @@
         <v>-1169.695131780001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>169800</v>
       </c>
-      <c r="J420" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14464,14 +14648,12 @@
         <v>-978.1461317800006</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>169900</v>
       </c>
-      <c r="J421" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,14 +14687,12 @@
         <v>-920.1443317800006</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>170200</v>
       </c>
-      <c r="J422" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14546,12 +14726,12 @@
         <v>-1008.567128920001</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>171300</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14585,14 +14765,12 @@
         <v>-894.1756791000006</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>171100</v>
       </c>
-      <c r="J424" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14626,14 +14804,12 @@
         <v>-881.5943879000006</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>171400</v>
       </c>
-      <c r="J425" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14667,12 +14843,12 @@
         <v>-861.8088791000006</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>171700</v>
+      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14709,9 +14885,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,9 +14922,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14787,9 +14959,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14826,9 +14996,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14865,9 +15033,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14904,9 +15070,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14943,9 +15107,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14982,9 +15144,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15018,14 +15178,10 @@
         <v>-589.4842586200004</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>173000</v>
-      </c>
-      <c r="J435" t="n">
-        <v>167700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15059,14 +15215,10 @@
         <v>-588.9690586200004</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>173000</v>
-      </c>
-      <c r="J436" t="n">
-        <v>167700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,14 +15252,10 @@
         <v>-567.0860586200004</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>173800</v>
-      </c>
-      <c r="J437" t="n">
-        <v>167700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15141,14 +15289,10 @@
         <v>-560.7606305000004</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>173900</v>
-      </c>
-      <c r="J438" t="n">
-        <v>167700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15185,9 +15329,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15224,9 +15366,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15263,9 +15403,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15302,9 +15440,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15341,9 +15477,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15380,9 +15514,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,9 +15551,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15458,9 +15588,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15497,9 +15625,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15536,9 +15662,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15575,9 +15699,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15611,12 +15733,12 @@
         <v>-548.7320670300005</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>173500</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15650,12 +15772,12 @@
         <v>-706.3995670300005</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>173400</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15689,12 +15811,12 @@
         <v>-681.9636670300006</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>172300</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,12 +15850,12 @@
         <v>-661.0796670300006</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>172500</v>
+      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15767,12 +15889,12 @@
         <v>-608.1927670300006</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>172600</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15806,12 +15928,12 @@
         <v>-608.1927670300006</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>173400</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15845,12 +15967,12 @@
         <v>-559.9735509400006</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>173400</v>
+      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,12 +16006,12 @@
         <v>-586.1150509400005</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>173700</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,12 +16045,12 @@
         <v>-527.8522509400005</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>173200</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15962,12 +16084,12 @@
         <v>-527.8522509400005</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>173300</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16001,12 +16123,12 @@
         <v>-522.6302509400006</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>173300</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16040,12 +16162,12 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>173800</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16079,12 +16201,12 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>173200</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16118,12 +16240,12 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>173200</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16157,12 +16279,12 @@
         <v>-567.6760509400006</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>173200</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16196,12 +16318,12 @@
         <v>-567.4260509400006</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>173000</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16235,12 +16357,12 @@
         <v>-578.2148449900005</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>173400</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16274,12 +16396,12 @@
         <v>-586.3998449900005</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>172800</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16313,12 +16435,12 @@
         <v>-491.7639449900005</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>172700</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16352,12 +16474,12 @@
         <v>-507.3441449900005</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>173000</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16391,12 +16513,12 @@
         <v>-523.3680449900005</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>172600</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,9 +16555,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16472,9 +16592,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16511,9 +16629,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,9 +16666,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,9 +16703,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,9 +16740,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16667,9 +16777,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16706,9 +16814,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16745,9 +16851,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,9 +16888,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,9 +16925,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,9 +16962,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,9 +16999,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16940,9 +17036,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16979,9 +17073,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17018,9 +17110,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +17147,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17096,9 +17184,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,9 +17221,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17174,9 +17258,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,9 +17295,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17252,9 +17332,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17291,9 +17369,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17330,9 +17406,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17369,9 +17443,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17408,9 +17480,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17447,9 +17517,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17486,9 +17554,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17525,9 +17591,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17564,9 +17628,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17603,9 +17665,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,9 +17702,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17681,9 +17739,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17720,9 +17776,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17759,9 +17813,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17798,9 +17850,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,9 +17887,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17876,9 +17924,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17915,9 +17961,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17954,9 +17998,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17993,9 +18035,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,9 +18072,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18071,9 +18109,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18110,9 +18146,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18149,9 +18183,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18188,9 +18220,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,9 +18257,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,9 +18294,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,9 +18331,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,9 +18368,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,9 +18405,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18422,9 +18442,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18461,9 +18479,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18500,9 +18516,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18539,9 +18553,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,9 +18590,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18617,9 +18627,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,9 +18664,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18695,9 +18701,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18734,9 +18738,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18773,9 +18775,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18812,9 +18812,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18851,9 +18849,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18890,9 +18886,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18929,9 +18923,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18968,9 +18960,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19007,9 +18997,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19046,9 +19034,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19085,9 +19071,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19124,9 +19108,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19163,9 +19145,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19202,9 +19182,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,9 +19219,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19280,9 +19256,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19319,9 +19293,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19358,9 +19330,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19397,9 +19367,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,9 +19404,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19475,9 +19441,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19514,9 +19478,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19553,9 +19515,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19592,9 +19552,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19628,12 +19586,12 @@
         <v>-610.3416394400004</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>172000</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,9 +19628,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19706,12 +19662,12 @@
         <v>-629.2536394400005</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>171300</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19745,12 +19701,12 @@
         <v>-627.8071394400005</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>171700</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19784,12 +19740,12 @@
         <v>-627.8071394400005</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>167700</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>172100</v>
+      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19826,9 +19782,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,9 +19819,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19904,9 +19856,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19943,9 +19893,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19982,9 +19930,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20021,9 +19967,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20060,9 +20004,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20099,9 +20041,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20138,9 +20078,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20177,9 +20115,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20216,9 +20152,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20255,9 +20189,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20294,9 +20226,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20333,9 +20263,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20372,9 +20300,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20411,9 +20337,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20450,9 +20374,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,9 +20411,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20528,9 +20448,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20567,9 +20485,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20606,9 +20522,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20645,9 +20559,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,9 +20596,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20723,9 +20633,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20762,9 +20670,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20801,9 +20707,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20840,9 +20744,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20879,9 +20781,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20918,9 +20818,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20957,9 +20855,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20996,9 +20892,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21035,9 +20929,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21074,9 +20966,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21113,9 +21003,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21152,9 +21040,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,9 +21077,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21230,9 +21114,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21269,9 +21151,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21308,9 +21188,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21347,9 +21225,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21386,9 +21262,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21425,9 +21299,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21464,9 +21336,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21503,9 +21373,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21542,9 +21410,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21581,9 +21447,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21620,9 +21484,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21659,9 +21521,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21698,9 +21558,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21737,9 +21595,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21776,9 +21632,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21815,9 +21669,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21854,9 +21706,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21893,9 +21743,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,9 +21780,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21971,9 +21817,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22010,9 +21854,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22049,9 +21891,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22088,9 +21928,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22127,9 +21965,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22166,9 +22002,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22205,9 +22039,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22244,9 +22076,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22283,9 +22113,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,9 +22150,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22361,9 +22187,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22400,9 +22224,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22439,9 +22261,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22478,9 +22298,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22517,9 +22335,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22556,9 +22372,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22595,9 +22409,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22634,9 +22446,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22673,9 +22483,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22712,9 +22520,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22751,9 +22557,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22790,9 +22594,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22829,9 +22631,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22868,9 +22668,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22907,9 +22705,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22946,9 +22742,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22985,9 +22779,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23024,9 +22816,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23063,9 +22853,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23102,9 +22890,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23141,9 +22927,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23177,19 +22961,17 @@
         <v>-325.2773143800006</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>167700</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L644" t="n">
-        <v>1.033163387000597</v>
+        <v>1</v>
       </c>
       <c r="M644" t="inlineStr"/>
     </row>
@@ -23220,7 +23002,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23253,7 +23039,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23286,7 +23076,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23319,7 +23113,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23352,7 +23150,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23385,7 +23187,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +23224,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23451,7 +23261,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23484,7 +23298,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23517,7 +23335,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23550,7 +23372,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23583,7 +23409,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23616,7 +23446,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23645,11 +23479,15 @@
         <v>-175.2215143800007</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23678,11 +23516,15 @@
         <v>-175.2215143800007</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23711,11 +23553,15 @@
         <v>-175.2215143800007</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23744,11 +23590,15 @@
         <v>-165.2165143800007</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23777,11 +23627,15 @@
         <v>-154.2115143800007</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23810,11 +23664,15 @@
         <v>-154.2115143800007</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23843,11 +23701,15 @@
         <v>-230.8427143800007</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23876,11 +23738,15 @@
         <v>-230.8427143800007</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23909,11 +23775,15 @@
         <v>-217.8771058300007</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23942,11 +23812,15 @@
         <v>-217.8771058300007</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23975,11 +23849,15 @@
         <v>-181.9728058300007</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24008,11 +23886,15 @@
         <v>-181.5654058300007</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24041,11 +23923,15 @@
         <v>-130.6885058300007</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24074,11 +23960,15 @@
         <v>-80.96070583000065</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24107,11 +23997,15 @@
         <v>-37.26790493000065</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24140,11 +24034,15 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24173,11 +24071,15 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24206,11 +24108,15 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24239,11 +24145,15 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24272,11 +24182,15 @@
         <v>126.2534742199993</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24305,11 +24219,15 @@
         <v>57.78468204999935</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24338,11 +24256,15 @@
         <v>-108.2090179500006</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24371,11 +24293,15 @@
         <v>-101.3572151400006</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24404,11 +24330,15 @@
         <v>45.76510767999935</v>
       </c>
       <c r="H681" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24437,11 +24367,15 @@
         <v>18.20440767999935</v>
       </c>
       <c r="H682" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24470,11 +24404,15 @@
         <v>78.61870767999935</v>
       </c>
       <c r="H683" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24503,11 +24441,15 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H684" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24536,11 +24478,15 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24569,11 +24515,15 @@
         <v>86.16730840999935</v>
       </c>
       <c r="H686" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24602,11 +24552,15 @@
         <v>-0.2821915900006502</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24639,7 +24593,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24672,7 +24630,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24705,7 +24667,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24738,7 +24704,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24771,7 +24741,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24804,7 +24778,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24837,7 +24815,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24870,7 +24852,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24903,7 +24889,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24936,7 +24926,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24969,7 +24963,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25002,7 +25000,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25035,7 +25037,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25068,7 +25074,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25101,7 +25111,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25134,7 +25148,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25167,7 +25185,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25200,7 +25222,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25233,7 +25259,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25266,7 +25296,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25299,7 +25333,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25332,7 +25370,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25365,7 +25407,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25398,7 +25444,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25431,7 +25481,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25464,7 +25518,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25497,7 +25555,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25526,11 +25588,15 @@
         <v>561.6076222199994</v>
       </c>
       <c r="H715" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25563,7 +25629,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25596,7 +25666,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25625,11 +25699,15 @@
         <v>639.2352169799994</v>
       </c>
       <c r="H718" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25658,11 +25736,15 @@
         <v>516.6470183799995</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25695,7 +25777,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25728,7 +25814,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25761,7 +25851,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25790,11 +25884,15 @@
         <v>673.5825183799996</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25827,7 +25925,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25860,7 +25962,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25893,7 +25999,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25926,7 +26036,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25959,7 +26073,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25992,7 +26110,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26025,7 +26147,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26058,7 +26184,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26091,7 +26221,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26124,7 +26258,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26157,7 +26295,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26190,7 +26332,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26223,7 +26369,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26256,7 +26406,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26289,7 +26443,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26322,7 +26480,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26355,7 +26517,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26388,7 +26554,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26421,7 +26591,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26454,7 +26628,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26487,7 +26665,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26520,7 +26702,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26553,7 +26739,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26586,7 +26776,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26619,7 +26813,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26652,7 +26850,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26685,7 +26887,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26718,7 +26924,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26751,7 +26961,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26784,7 +26998,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26817,7 +27035,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26850,7 +27072,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26883,7 +27109,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26916,7 +27146,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26949,7 +27183,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26982,7 +27220,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27015,7 +27257,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27048,7 +27294,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27081,7 +27331,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27110,11 +27364,15 @@
         <v>991.6213402999998</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27147,7 +27405,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27176,11 +27438,15 @@
         <v>2298.04594049</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27209,11 +27475,15 @@
         <v>2298.04594049</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27242,11 +27512,15 @@
         <v>2298.04594049</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27275,11 +27549,15 @@
         <v>2419.92665194</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27308,11 +27586,15 @@
         <v>2995.85953303</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27341,11 +27623,15 @@
         <v>2528.32995512</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27374,11 +27660,15 @@
         <v>2671.21715512</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27407,11 +27697,15 @@
         <v>2610.50285512</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27440,11 +27734,15 @@
         <v>2814.51785512</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27473,11 +27771,15 @@
         <v>3214.9898087</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27506,11 +27808,15 @@
         <v>3614.11678724</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27543,7 +27849,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27576,7 +27886,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27605,11 +27919,15 @@
         <v>3568.6724938</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27638,11 +27956,15 @@
         <v>2916.63224562</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27671,11 +27993,15 @@
         <v>2996.20274562</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27708,7 +28034,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27737,11 +28067,15 @@
         <v>3147.58584562</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27774,7 +28108,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27807,7 +28145,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27840,7 +28182,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27873,7 +28219,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27906,7 +28256,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27939,7 +28293,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27972,7 +28330,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28005,7 +28367,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28038,7 +28404,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28071,7 +28441,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28104,7 +28478,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28137,7 +28515,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28170,7 +28552,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28203,7 +28589,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28236,7 +28626,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28269,7 +28663,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28302,7 +28700,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28335,7 +28737,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28368,7 +28774,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28401,7 +28811,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28434,7 +28848,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28463,14 +28881,16 @@
         <v>4006.450888219999</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
-      <c r="L804" t="n">
-        <v>1</v>
-      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L804" t="inlineStr"/>
       <c r="M804" t="inlineStr"/>
     </row>
     <row r="805">
@@ -28529,7 +28949,7 @@
         <v>4011.880788219999</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -28661,7 +29081,7 @@
         <v>4021.619419799999</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -28760,7 +29180,7 @@
         <v>4325.624972309999</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -28793,7 +29213,7 @@
         <v>4264.916241569999</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -28826,7 +29246,7 @@
         <v>4342.167258629999</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -28859,7 +29279,7 @@
         <v>4238.842958629999</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28892,7 +29312,7 @@
         <v>4192.270469499999</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28925,7 +29345,7 @@
         <v>4128.123669499999</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28958,7 +29378,7 @@
         <v>4189.680174859999</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28991,7 +29411,7 @@
         <v>4307.771592319999</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29024,7 +29444,7 @@
         <v>4328.258392319999</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29057,7 +29477,7 @@
         <v>4327.198292319999</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29090,7 +29510,7 @@
         <v>4419.79639232</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29123,7 +29543,7 @@
         <v>4584.085291939999</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29156,7 +29576,7 @@
         <v>4544.49419194</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29189,7 +29609,7 @@
         <v>4585.82829194</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29222,7 +29642,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29255,7 +29675,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29288,7 +29708,7 @@
         <v>4553.04969194</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29321,7 +29741,7 @@
         <v>4567.45429194</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29354,7 +29774,7 @@
         <v>4516.49009894</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29387,7 +29807,7 @@
         <v>4516.627398940001</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29420,7 +29840,7 @@
         <v>4497.73299894</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29453,7 +29873,7 @@
         <v>4523.580698940001</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29552,7 +29972,7 @@
         <v>4483.803342480001</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29585,7 +30005,7 @@
         <v>4472.13814248</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29618,7 +30038,7 @@
         <v>4459.36004248</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29684,7 +30104,7 @@
         <v>4686.11634248</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29717,7 +30137,7 @@
         <v>4685.96474248</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29750,7 +30170,7 @@
         <v>4684.12004248</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29783,7 +30203,7 @@
         <v>4621.75341921</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29816,7 +30236,7 @@
         <v>4609.34091921</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29849,7 +30269,7 @@
         <v>4480.42581921</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29882,7 +30302,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29915,7 +30335,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H848" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29948,7 +30368,7 @@
         <v>4591.40421921</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29981,7 +30401,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30014,7 +30434,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30047,7 +30467,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30080,7 +30500,7 @@
         <v>4327.35291921</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30113,7 +30533,7 @@
         <v>4347.659819209999</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30146,7 +30566,7 @@
         <v>4355.341919209999</v>
       </c>
       <c r="H855" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30179,7 +30599,7 @@
         <v>4306.893719209999</v>
       </c>
       <c r="H856" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30212,7 +30632,7 @@
         <v>4337.87631921</v>
       </c>
       <c r="H857" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30245,7 +30665,7 @@
         <v>4337.87631921</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30278,7 +30698,7 @@
         <v>4347.87631921</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30311,7 +30731,7 @@
         <v>4347.87631921</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30344,7 +30764,7 @@
         <v>4349.802519209999</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30377,7 +30797,7 @@
         <v>4428.442420269999</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30410,7 +30830,7 @@
         <v>4438.913898329999</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30443,7 +30863,7 @@
         <v>4265.154598329999</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30476,7 +30896,7 @@
         <v>4734.420920269999</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30509,7 +30929,7 @@
         <v>4652.157317409999</v>
       </c>
       <c r="H866" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30542,7 +30962,7 @@
         <v>4517.656417409999</v>
       </c>
       <c r="H867" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30575,7 +30995,7 @@
         <v>4528.46591741</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30608,7 +31028,7 @@
         <v>4513.85131741</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30641,7 +31061,7 @@
         <v>4513.85131741</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30674,7 +31094,7 @@
         <v>4516.11061741</v>
       </c>
       <c r="H871" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30707,7 +31127,7 @@
         <v>4493.481817409999</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30740,7 +31160,7 @@
         <v>4403.640117409999</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30773,7 +31193,7 @@
         <v>4403.650117409999</v>
       </c>
       <c r="H874" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30806,7 +31226,7 @@
         <v>4403.650117409999</v>
       </c>
       <c r="H875" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30839,7 +31259,7 @@
         <v>4381.62871741</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30872,7 +31292,7 @@
         <v>4347.47181741</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30905,7 +31325,7 @@
         <v>4376.18751741</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30938,7 +31358,7 @@
         <v>4376.18751741</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30971,7 +31391,7 @@
         <v>4384.561117409999</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31004,7 +31424,7 @@
         <v>4347.616817409999</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31037,7 +31457,7 @@
         <v>4273.40211741</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31070,7 +31490,7 @@
         <v>4230.60091741</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31103,7 +31523,7 @@
         <v>4260.17152222</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31136,7 +31556,7 @@
         <v>4258.06512222</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31169,7 +31589,7 @@
         <v>4006.01772222</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31202,7 +31622,7 @@
         <v>3569.20412222</v>
       </c>
       <c r="H887" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31235,7 +31655,7 @@
         <v>3554.680822220001</v>
       </c>
       <c r="H888" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31268,7 +31688,7 @@
         <v>3236.194622220001</v>
       </c>
       <c r="H889" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31301,7 +31721,7 @@
         <v>3358.669922220001</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31334,7 +31754,7 @@
         <v>3269.556406940001</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31367,7 +31787,7 @@
         <v>3269.556406940001</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31400,7 +31820,7 @@
         <v>3368.690006940001</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31433,7 +31853,7 @@
         <v>3283.060006940001</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31466,7 +31886,7 @@
         <v>3445.740195960001</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31499,7 +31919,7 @@
         <v>3430.380380680001</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31532,7 +31952,7 @@
         <v>3509.595580680001</v>
       </c>
       <c r="H897" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31565,7 +31985,7 @@
         <v>3380.783080680001</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31598,7 +32018,7 @@
         <v>3263.013380680001</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31631,7 +32051,7 @@
         <v>3151.053580680001</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31664,7 +32084,7 @@
         <v>2689.564080680001</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31697,7 +32117,7 @@
         <v>2087.33668068</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31730,7 +32150,7 @@
         <v>1574.67438068</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31763,7 +32183,7 @@
         <v>1489.391380680001</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31796,7 +32216,7 @@
         <v>1340.526780680001</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31829,7 +32249,7 @@
         <v>1384.816580680001</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31862,7 +32282,7 @@
         <v>1555.203180680001</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31895,7 +32315,7 @@
         <v>1429.279746040001</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31928,7 +32348,7 @@
         <v>1443.323046040001</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31961,7 +32381,7 @@
         <v>1443.323046040001</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32027,7 +32447,7 @@
         <v>1483.959560150001</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32060,7 +32480,7 @@
         <v>1702.468581660001</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32093,7 +32513,7 @@
         <v>1490.511181660001</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32126,7 +32546,7 @@
         <v>1420.219481660001</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32159,7 +32579,7 @@
         <v>1427.558081660001</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32192,7 +32612,7 @@
         <v>1395.988346290001</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33479,7 +33899,7 @@
         <v>1470.15958705</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35822,7 +36242,7 @@
         <v>1596.50253953</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -35855,7 +36275,7 @@
         <v>1454.97081332</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -35888,7 +36308,7 @@
         <v>1436.04421332</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -35921,7 +36341,7 @@
         <v>1436.04421332</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -35954,7 +36374,7 @@
         <v>1444.63781332</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -35987,7 +36407,7 @@
         <v>1341.02931332</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36020,7 +36440,7 @@
         <v>1022.85587895</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36053,7 +36473,7 @@
         <v>1191.66137895</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36086,7 +36506,7 @@
         <v>1191.66437895</v>
       </c>
       <c r="H1035" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36119,7 +36539,7 @@
         <v>1118.60197895</v>
       </c>
       <c r="H1036" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -39925,6 +40345,6 @@
       <c r="M1151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest BSV.xlsx
+++ b/BackTest/2020-01-13 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-662.5328012300001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-766.3849279900002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-681.5985279900002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-515.1523279900002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-401.2945279900002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-172.4007279900002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>163.0572741399998</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>106.3987741399998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>125.5052756199998</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>265.5575828199998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-31.00436114000024</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>18.03462017999976</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>151.8916201799998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>149.8916201799998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>148.4044201799998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>17.22472017999976</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>89.02392017999976</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-66.89187982000023</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>73.02312017999976</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>124.1321201799998</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>314.1826201799997</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>90.30282017999974</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>145.8671201799997</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>158.5196201799997</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>184.9493201799997</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>237.0123196799997</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>235.7728196799997</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>248.7529196799997</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>302.6028196799998</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>293.9228196799997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>302.6498196799997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>267.5933196799997</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>278.5103196799997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>256.7247196799997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>161.7166302299997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>191.0991302299997</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>229.8055302299997</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>269.3724582399997</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>266.0641582399997</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>267.7351582399997</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>226.2200582399997</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>254.9935582399997</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>193.3683582399997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>181.0258582399997</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>139.1134582399997</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>137.9034582399997</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>138.3834582399996</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>127.6759582399996</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>171.2962582399996</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>148.7722582399996</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>148.3522582399997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>73.35835823999966</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>64.63855823999967</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>107.3367582399997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>85.72445823999966</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>91.97255823999966</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>92.28255823999966</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>46.36115823999966</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>56.95045823999966</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>75.61505823999966</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>59.11235823999964</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>67.31335823999964</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>81.93605823999964</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>92.91915823999963</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>94.78915823999964</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>70.02015823999963</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>78.17615823999964</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>73.16335823999962</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>68.85545823999962</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>122.1593927899997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-455.9285700100004</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-536.3627700100004</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-667.6537700100005</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-640.6563700100005</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-695.8850700100005</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-557.3308563100007</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-631.1955563100007</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-661.2699563100007</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-309.7379323900007</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-589.5631575000006</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-428.2120575000006</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-440.0533575000006</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12133,165 +12133,149 @@
         <v>-1437.32665853</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>170500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C357" t="n">
+        <v>169300</v>
+      </c>
+      <c r="D357" t="n">
+        <v>169800</v>
+      </c>
+      <c r="E357" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F357" t="n">
+        <v>210.4885</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-1647.81515853</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>169300</v>
+      </c>
+      <c r="C358" t="n">
+        <v>169100</v>
+      </c>
+      <c r="D358" t="n">
+        <v>169500</v>
+      </c>
+      <c r="E358" t="n">
+        <v>169100</v>
+      </c>
+      <c r="F358" t="n">
+        <v>186.655</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1834.47015853</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>169200</v>
+      </c>
+      <c r="C359" t="n">
+        <v>169400</v>
+      </c>
+      <c r="D359" t="n">
+        <v>169500</v>
+      </c>
+      <c r="E359" t="n">
+        <v>169000</v>
+      </c>
+      <c r="F359" t="n">
+        <v>218.2163</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-1616.25385853</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>169100</v>
+      </c>
+      <c r="C360" t="n">
+        <v>168600</v>
+      </c>
+      <c r="D360" t="n">
+        <v>169100</v>
+      </c>
+      <c r="E360" t="n">
+        <v>168600</v>
+      </c>
+      <c r="F360" t="n">
+        <v>213.8431</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-1830.09695853</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>169400</v>
+      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C357" t="n">
-        <v>169300</v>
-      </c>
-      <c r="D357" t="n">
-        <v>169800</v>
-      </c>
-      <c r="E357" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F357" t="n">
-        <v>210.4885</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-1647.81515853</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>169300</v>
-      </c>
-      <c r="C358" t="n">
-        <v>169100</v>
-      </c>
-      <c r="D358" t="n">
-        <v>169500</v>
-      </c>
-      <c r="E358" t="n">
-        <v>169100</v>
-      </c>
-      <c r="F358" t="n">
-        <v>186.655</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-1834.47015853</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>169200</v>
-      </c>
-      <c r="C359" t="n">
-        <v>169400</v>
-      </c>
-      <c r="D359" t="n">
-        <v>169500</v>
-      </c>
-      <c r="E359" t="n">
-        <v>169000</v>
-      </c>
-      <c r="F359" t="n">
-        <v>218.2163</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-1616.25385853</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>169100</v>
-      </c>
-      <c r="C360" t="n">
-        <v>168600</v>
-      </c>
-      <c r="D360" t="n">
-        <v>169100</v>
-      </c>
-      <c r="E360" t="n">
-        <v>168600</v>
-      </c>
-      <c r="F360" t="n">
-        <v>213.8431</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-1830.09695853</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12320,9 +12304,11 @@
         <v>-2054.60455853</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>168600</v>
+      </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12513,9 +12499,11 @@
         <v>-1777.68400494</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>168800</v>
+      </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12589,11 +12577,9 @@
         <v>-1733.21604115</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>169800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12628,11 +12614,9 @@
         <v>-1741.41334115</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>170300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12667,11 +12651,9 @@
         <v>-1741.41334115</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>169800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12706,11 +12688,9 @@
         <v>-1796.00994115</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>169800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -12745,11 +12725,9 @@
         <v>-1729.71754115</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -12784,11 +12762,9 @@
         <v>-1731.80824115</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>169700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -12823,11 +12799,9 @@
         <v>-1739.860341150001</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>169200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -12862,11 +12836,9 @@
         <v>-1769.092941150001</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>169100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -12979,11 +12951,9 @@
         <v>-1443.259141150001</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>168400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -13018,11 +12988,9 @@
         <v>-1223.120541150001</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>168900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -13057,11 +13025,9 @@
         <v>-1186.435841150001</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>169400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -13244,11 +13210,9 @@
         <v>-1215.805741150001</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -13283,11 +13247,9 @@
         <v>-1220.830641150001</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -13322,11 +13284,9 @@
         <v>-1237.592941150001</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>168900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
@@ -13361,11 +13321,9 @@
         <v>-1107.634041150001</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>168700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
@@ -13400,11 +13358,9 @@
         <v>-1210.499941150001</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>169200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13439,11 +13395,9 @@
         <v>-1502.527041150001</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>168500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13478,11 +13432,9 @@
         <v>-1453.893041150001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>167500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13556,11 +13508,9 @@
         <v>-1784.010964980001</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>167400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13907,11 +13857,9 @@
         <v>-1348.239064980001</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>168300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13946,11 +13894,9 @@
         <v>-1278.329664980001</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>168800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13985,11 +13931,9 @@
         <v>-1314.013762670001</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>169200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14024,11 +13968,9 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>168900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14063,11 +14005,9 @@
         <v>-1429.428562670001</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>168600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14219,11 +14159,9 @@
         <v>-1416.000034430001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>169000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14258,11 +14196,9 @@
         <v>-1378.033634430001</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>169300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14297,11 +14233,9 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>169400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14336,11 +14270,9 @@
         <v>-1458.629034430001</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>169200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14375,11 +14307,9 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>169200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14414,11 +14344,9 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14453,11 +14381,9 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14492,11 +14418,9 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14531,11 +14455,9 @@
         <v>-1372.663531780001</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -14570,11 +14492,9 @@
         <v>-1265.248831780001</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>169500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14609,11 +14529,9 @@
         <v>-1169.695131780001</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>169800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14687,11 +14605,9 @@
         <v>-920.1443317800006</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>170200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14726,11 +14642,9 @@
         <v>-1008.567128920001</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>171300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14765,11 +14679,9 @@
         <v>-894.1756791000006</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>171100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14804,11 +14716,9 @@
         <v>-881.5943879000006</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>171400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14843,11 +14753,9 @@
         <v>-861.8088791000006</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>171700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -15437,18 +15345,16 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="inlineStr"/>
     </row>
     <row r="443">
@@ -15474,15 +15380,11 @@
         <v>-568.6468720800004</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15511,15 +15413,11 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15548,15 +15446,11 @@
         <v>-499.8801670300005</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15589,11 +15483,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15622,15 +15512,11 @@
         <v>-394.8264670300005</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15659,15 +15545,11 @@
         <v>-586.7927670300005</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15696,15 +15578,11 @@
         <v>-529.9405670300005</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15733,17 +15611,11 @@
         <v>-548.7320670300005</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>173500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15772,17 +15644,11 @@
         <v>-706.3995670300005</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>173400</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15811,17 +15677,11 @@
         <v>-681.9636670300006</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>172300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15850,17 +15710,11 @@
         <v>-661.0796670300006</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>172500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15889,17 +15743,11 @@
         <v>-608.1927670300006</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>172600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15928,17 +15776,11 @@
         <v>-608.1927670300006</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>173400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15967,17 +15809,11 @@
         <v>-559.9735509400006</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>173400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16006,17 +15842,11 @@
         <v>-586.1150509400005</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>173700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16045,17 +15875,11 @@
         <v>-527.8522509400005</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>173200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16084,17 +15908,11 @@
         <v>-527.8522509400005</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>173300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16123,17 +15941,11 @@
         <v>-522.6302509400006</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>173300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16162,17 +15974,11 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>173800</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16201,17 +16007,11 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>173200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16240,17 +16040,11 @@
         <v>-553.2778509400006</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>173200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16279,17 +16073,11 @@
         <v>-567.6760509400006</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>173200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16318,17 +16106,11 @@
         <v>-567.4260509400006</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>173000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16357,17 +16139,11 @@
         <v>-578.2148449900005</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>173400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16396,17 +16172,11 @@
         <v>-586.3998449900005</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>172800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16435,17 +16205,11 @@
         <v>-491.7639449900005</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>172700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16474,17 +16238,11 @@
         <v>-507.3441449900005</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>173000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16513,17 +16271,11 @@
         <v>-523.3680449900005</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>172600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16556,11 +16308,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16593,11 +16341,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16630,11 +16374,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16667,11 +16407,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16704,11 +16440,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16741,11 +16473,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16778,11 +16506,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16815,11 +16539,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +16572,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16889,11 +16605,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16926,11 +16638,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16963,11 +16671,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17000,11 +16704,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17037,11 +16737,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17074,11 +16770,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17111,11 +16803,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17148,11 +16836,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17185,11 +16869,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17222,11 +16902,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17259,11 +16935,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17296,11 +16968,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17333,11 +17001,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17370,11 +17034,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17407,11 +17067,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17444,11 +17100,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17481,11 +17133,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17518,11 +17166,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17555,11 +17199,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17592,11 +17232,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17629,11 +17265,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17666,11 +17298,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17703,11 +17331,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17740,11 +17364,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17777,11 +17397,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17814,11 +17430,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17851,11 +17463,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17888,11 +17496,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17925,11 +17529,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17962,11 +17562,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17999,11 +17595,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18036,11 +17628,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +17661,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18110,11 +17694,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18147,11 +17727,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18184,11 +17760,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18221,11 +17793,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18258,11 +17826,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18295,11 +17859,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18332,11 +17892,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18369,11 +17925,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18406,11 +17958,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18443,11 +17991,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18480,11 +18024,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18517,11 +18057,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18554,11 +18090,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18591,11 +18123,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18628,11 +18156,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18665,11 +18189,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18702,11 +18222,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18739,11 +18255,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18776,11 +18288,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18813,11 +18321,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18850,11 +18354,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18887,11 +18387,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18924,11 +18420,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18961,11 +18453,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18998,11 +18486,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19035,11 +18519,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19072,11 +18552,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19109,11 +18585,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19146,11 +18618,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19183,11 +18651,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19220,11 +18684,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19257,11 +18717,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +18750,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19331,11 +18783,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19368,11 +18816,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19405,11 +18849,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19442,11 +18882,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19479,11 +18915,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19516,11 +18948,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19553,11 +18981,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19586,17 +19010,11 @@
         <v>-610.3416394400004</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>172000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19629,11 +19047,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19662,17 +19076,11 @@
         <v>-629.2536394400005</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>171300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19701,17 +19109,11 @@
         <v>-627.8071394400005</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>171700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19740,17 +19142,11 @@
         <v>-627.8071394400005</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>172100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19783,11 +19179,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19820,11 +19212,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19857,11 +19245,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19894,11 +19278,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19931,11 +19311,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19968,11 +19344,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20005,11 +19377,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20042,11 +19410,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20079,11 +19443,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20116,11 +19476,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20153,11 +19509,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20190,11 +19542,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20227,11 +19575,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20264,11 +19608,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20301,11 +19641,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20338,11 +19674,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20375,11 +19707,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20412,11 +19740,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +19773,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20486,11 +19806,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20523,11 +19839,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20560,11 +19872,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20597,11 +19905,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20634,11 +19938,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20671,11 +19971,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20708,11 +20004,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20745,11 +20037,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20782,11 +20070,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20819,11 +20103,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20856,11 +20136,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20893,11 +20169,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20930,11 +20202,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20967,11 +20235,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21004,11 +20268,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21041,11 +20301,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21078,11 +20334,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21115,11 +20367,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21152,11 +20400,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21189,11 +20433,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21226,11 +20466,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21263,11 +20499,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21300,11 +20532,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21337,11 +20565,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21374,11 +20598,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21407,15 +20627,11 @@
         <v>-358.0744607700005</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21444,15 +20660,11 @@
         <v>-394.3720607700005</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21485,11 +20697,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21522,11 +20730,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21559,11 +20763,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21596,11 +20796,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21633,11 +20829,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +20862,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21707,11 +20895,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21744,11 +20928,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21781,11 +20961,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21818,11 +20994,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21855,11 +21027,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21892,11 +21060,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21929,11 +21093,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21966,11 +21126,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22003,11 +21159,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22040,11 +21192,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22077,11 +21225,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22114,11 +21258,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22151,11 +21291,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22188,11 +21324,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22225,11 +21357,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22262,11 +21390,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22299,11 +21423,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22336,11 +21456,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22373,11 +21489,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22410,11 +21522,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22447,11 +21555,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22484,11 +21588,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22521,11 +21621,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22558,11 +21654,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22595,11 +21687,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22632,11 +21720,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22669,11 +21753,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22706,11 +21786,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22743,11 +21819,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22780,11 +21852,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22817,11 +21885,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22854,11 +21918,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22891,11 +21951,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22928,11 +21984,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22965,11 +22017,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23002,11 +22050,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23039,11 +22083,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23076,11 +22116,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23113,11 +22149,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23150,11 +22182,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23187,11 +22215,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23224,11 +22248,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23261,11 +22281,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23298,11 +22314,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23335,11 +22347,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23372,11 +22380,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23409,11 +22413,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23446,11 +22446,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23483,11 +22479,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23520,11 +22512,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23557,11 +22545,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23594,11 +22578,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23631,11 +22611,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23664,15 +22640,11 @@
         <v>-154.2115143800007</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23705,11 +22677,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23738,15 +22706,11 @@
         <v>-230.8427143800007</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23779,11 +22743,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23816,11 +22776,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23853,11 +22809,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23890,11 +22842,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23927,11 +22875,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23960,15 +22904,11 @@
         <v>-80.96070583000065</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23997,15 +22937,11 @@
         <v>-37.26790493000065</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24034,15 +22970,11 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24071,15 +23003,11 @@
         <v>-4.85701439000065</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24108,15 +23036,11 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24145,15 +23069,11 @@
         <v>237.5305746099993</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24182,15 +23102,11 @@
         <v>126.2534742199993</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24219,15 +23135,11 @@
         <v>57.78468204999935</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24256,15 +23168,11 @@
         <v>-108.2090179500006</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24293,15 +23201,11 @@
         <v>-101.3572151400006</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24330,15 +23234,11 @@
         <v>45.76510767999935</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24367,15 +23267,11 @@
         <v>18.20440767999935</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24404,15 +23300,11 @@
         <v>78.61870767999935</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24441,15 +23333,11 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24478,15 +23366,11 @@
         <v>136.2535076799994</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24515,15 +23399,11 @@
         <v>86.16730840999935</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24552,15 +23432,11 @@
         <v>-0.2821915900006502</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24589,15 +23465,11 @@
         <v>-32.10739159000065</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24626,15 +23498,11 @@
         <v>-72.61479159000064</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24663,15 +23531,11 @@
         <v>-5.875271440000631</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24700,15 +23564,11 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24737,15 +23597,11 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24774,15 +23630,11 @@
         <v>-42.20707144000063</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24811,15 +23663,11 @@
         <v>-27.38537144000063</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24848,15 +23696,11 @@
         <v>-58.94987335000063</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24885,15 +23729,11 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24922,15 +23762,11 @@
         <v>-79.34267335000064</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24959,15 +23795,11 @@
         <v>-55.15517335000064</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24996,15 +23828,11 @@
         <v>-16.76647526000064</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25033,15 +23861,11 @@
         <v>16.86831213999936</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25070,15 +23894,11 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25107,15 +23927,11 @@
         <v>9.06831213999936</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25144,15 +23960,11 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25181,15 +23993,11 @@
         <v>73.87471213999936</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25218,15 +24026,11 @@
         <v>84.87471213999936</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25255,15 +24059,11 @@
         <v>121.7637657199994</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25292,15 +24092,11 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25329,15 +24125,11 @@
         <v>112.1693657199993</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25366,15 +24158,11 @@
         <v>30.04856571999935</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25403,15 +24191,11 @@
         <v>87.39856571999934</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25440,15 +24224,11 @@
         <v>161.1205743599994</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25477,15 +24257,11 @@
         <v>446.9964657199994</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25514,15 +24290,11 @@
         <v>580.2316222199994</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25551,15 +24323,11 @@
         <v>567.0107222199994</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25588,15 +24356,11 @@
         <v>561.6076222199994</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25625,15 +24389,11 @@
         <v>568.7729222199994</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25662,15 +24422,11 @@
         <v>493.2912824799994</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25699,15 +24455,11 @@
         <v>639.2352169799994</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25736,15 +24488,11 @@
         <v>516.6470183799995</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25773,15 +24521,11 @@
         <v>461.1189183799995</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25810,15 +24554,11 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25847,15 +24587,11 @@
         <v>397.4867183799995</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25884,15 +24620,11 @@
         <v>673.5825183799996</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25921,15 +24653,11 @@
         <v>589.6819183799996</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25958,15 +24686,11 @@
         <v>595.0905183799996</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25995,15 +24719,11 @@
         <v>585.3748183799996</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26032,15 +24752,11 @@
         <v>751.6825183799997</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26069,15 +24785,11 @@
         <v>751.5897183799997</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26106,15 +24818,11 @@
         <v>636.4841183799997</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26143,15 +24851,11 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26180,15 +24884,11 @@
         <v>555.3562183799997</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26217,15 +24917,11 @@
         <v>670.6163183799997</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26254,15 +24950,11 @@
         <v>588.3263183799997</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26291,15 +24983,11 @@
         <v>554.7397183799998</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26328,15 +25016,11 @@
         <v>517.5557183799998</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26365,15 +25049,11 @@
         <v>515.1350183799998</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26402,15 +25082,11 @@
         <v>517.1251924099998</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26439,15 +25115,11 @@
         <v>382.9374924099998</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26476,15 +25148,11 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26513,15 +25181,11 @@
         <v>438.1647924099998</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26550,15 +25214,11 @@
         <v>368.6056924099998</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26587,15 +25247,11 @@
         <v>363.0082924099999</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26624,15 +25280,11 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26661,15 +25313,11 @@
         <v>469.3360924099999</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26698,15 +25346,11 @@
         <v>359.5961924099998</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26735,15 +25379,11 @@
         <v>415.2236924099998</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26772,15 +25412,11 @@
         <v>419.6756924099998</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26809,15 +25445,11 @@
         <v>407.2299924099999</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26846,15 +25478,11 @@
         <v>397.4187924099999</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26883,15 +25511,11 @@
         <v>358.2150924099999</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26920,15 +25544,11 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26957,15 +25577,11 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26994,15 +25610,11 @@
         <v>330.1504924099999</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27031,15 +25643,11 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27068,15 +25676,11 @@
         <v>332.0255924099999</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27105,15 +25709,11 @@
         <v>332.8255924099999</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27142,15 +25742,11 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27179,15 +25775,11 @@
         <v>435.5472924099999</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27216,15 +25808,11 @@
         <v>705.6901869999999</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27253,15 +25841,11 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27290,15 +25874,11 @@
         <v>877.0192457799999</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27327,15 +25907,11 @@
         <v>887.6371457799999</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27364,15 +25940,11 @@
         <v>991.6213402999998</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27401,15 +25973,11 @@
         <v>1420.37114213</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27438,15 +26006,11 @@
         <v>2298.04594049</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27479,11 +26043,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27516,11 +26076,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27553,11 +26109,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27590,11 +26142,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27627,11 +26175,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27664,11 +26208,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27701,11 +26241,7 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27738,11 +26274,7 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +26307,7 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27812,11 +26340,7 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27849,11 +26373,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27886,11 +26406,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27923,11 +26439,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27960,11 +26472,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27997,11 +26505,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28034,11 +26538,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28071,11 +26571,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28108,11 +26604,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28145,11 +26637,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28182,11 +26670,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28219,11 +26703,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28256,11 +26736,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28293,11 +26769,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28330,11 +26802,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28367,11 +26835,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28404,11 +26868,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28441,11 +26901,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28478,11 +26934,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28515,11 +26967,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28552,11 +27000,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28589,11 +27033,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28626,11 +27066,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28663,11 +27099,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28700,11 +27132,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28737,11 +27165,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28774,11 +27198,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28811,11 +27231,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28848,11 +27264,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28881,16 +27293,14 @@
         <v>4006.450888219999</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
+      <c r="L804" t="n">
+        <v>1</v>
+      </c>
       <c r="M804" t="inlineStr"/>
     </row>
     <row r="805">
@@ -28949,7 +27359,7 @@
         <v>4011.880788219999</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29180,7 +27590,7 @@
         <v>4325.624972309999</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29213,7 +27623,7 @@
         <v>4264.916241569999</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29246,7 +27656,7 @@
         <v>4342.167258629999</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29279,7 +27689,7 @@
         <v>4238.842958629999</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29312,7 +27722,7 @@
         <v>4192.270469499999</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29345,7 +27755,7 @@
         <v>4128.123669499999</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29378,7 +27788,7 @@
         <v>4189.680174859999</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29411,7 +27821,7 @@
         <v>4307.771592319999</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29444,7 +27854,7 @@
         <v>4328.258392319999</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29477,7 +27887,7 @@
         <v>4327.198292319999</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29510,7 +27920,7 @@
         <v>4419.79639232</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29543,7 +27953,7 @@
         <v>4584.085291939999</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29576,7 +27986,7 @@
         <v>4544.49419194</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29609,7 +28019,7 @@
         <v>4585.82829194</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29642,7 +28052,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29675,7 +28085,7 @@
         <v>4575.12749194</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29708,7 +28118,7 @@
         <v>4553.04969194</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29741,7 +28151,7 @@
         <v>4567.45429194</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29774,7 +28184,7 @@
         <v>4516.49009894</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29807,7 +28217,7 @@
         <v>4516.627398940001</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29840,7 +28250,7 @@
         <v>4497.73299894</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29873,7 +28283,7 @@
         <v>4523.580698940001</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29972,7 +28382,7 @@
         <v>4483.803342480001</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30005,7 +28415,7 @@
         <v>4472.13814248</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30038,7 +28448,7 @@
         <v>4459.36004248</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30104,7 +28514,7 @@
         <v>4686.11634248</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30137,7 +28547,7 @@
         <v>4685.96474248</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30170,7 +28580,7 @@
         <v>4684.12004248</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30203,7 +28613,7 @@
         <v>4621.75341921</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30236,7 +28646,7 @@
         <v>4609.34091921</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30269,7 +28679,7 @@
         <v>4480.42581921</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30302,7 +28712,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30335,7 +28745,7 @@
         <v>4564.331619209999</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30368,7 +28778,7 @@
         <v>4591.40421921</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30401,7 +28811,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30434,7 +28844,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30467,7 +28877,7 @@
         <v>4558.18031921</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30500,7 +28910,7 @@
         <v>4327.35291921</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30533,7 +28943,7 @@
         <v>4347.659819209999</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30566,7 +28976,7 @@
         <v>4355.341919209999</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30599,7 +29009,7 @@
         <v>4306.893719209999</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30632,7 +29042,7 @@
         <v>4337.87631921</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30665,7 +29075,7 @@
         <v>4337.87631921</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30698,7 +29108,7 @@
         <v>4347.87631921</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30731,7 +29141,7 @@
         <v>4347.87631921</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30764,7 +29174,7 @@
         <v>4349.802519209999</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30797,7 +29207,7 @@
         <v>4428.442420269999</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30830,7 +29240,7 @@
         <v>4438.913898329999</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30863,7 +29273,7 @@
         <v>4265.154598329999</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30896,7 +29306,7 @@
         <v>4734.420920269999</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30929,7 +29339,7 @@
         <v>4652.157317409999</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30962,7 +29372,7 @@
         <v>4517.656417409999</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30995,7 +29405,7 @@
         <v>4528.46591741</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31358,7 +29768,7 @@
         <v>4376.18751741</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31391,7 +29801,7 @@
         <v>4384.561117409999</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31424,7 +29834,7 @@
         <v>4347.616817409999</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31457,7 +29867,7 @@
         <v>4273.40211741</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31490,7 +29900,7 @@
         <v>4230.60091741</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31523,7 +29933,7 @@
         <v>4260.17152222</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31556,7 +29966,7 @@
         <v>4258.06512222</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31589,7 +29999,7 @@
         <v>4006.01772222</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31622,7 +30032,7 @@
         <v>3569.20412222</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31655,7 +30065,7 @@
         <v>3554.680822220001</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31688,7 +30098,7 @@
         <v>3236.194622220001</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31721,7 +30131,7 @@
         <v>3358.669922220001</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31754,7 +30164,7 @@
         <v>3269.556406940001</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31787,7 +30197,7 @@
         <v>3269.556406940001</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31820,7 +30230,7 @@
         <v>3368.690006940001</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31853,7 +30263,7 @@
         <v>3283.060006940001</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31886,7 +30296,7 @@
         <v>3445.740195960001</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31919,7 +30329,7 @@
         <v>3430.380380680001</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31952,7 +30362,7 @@
         <v>3509.595580680001</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31985,7 +30395,7 @@
         <v>3380.783080680001</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32018,7 +30428,7 @@
         <v>3263.013380680001</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32051,7 +30461,7 @@
         <v>3151.053580680001</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32084,7 +30494,7 @@
         <v>2689.564080680001</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32117,7 +30527,7 @@
         <v>2087.33668068</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32150,7 +30560,7 @@
         <v>1574.67438068</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32183,7 +30593,7 @@
         <v>1489.391380680001</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32216,7 +30626,7 @@
         <v>1340.526780680001</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32249,7 +30659,7 @@
         <v>1384.816580680001</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32282,7 +30692,7 @@
         <v>1555.203180680001</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32315,7 +30725,7 @@
         <v>1429.279746040001</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32348,7 +30758,7 @@
         <v>1443.323046040001</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32381,7 +30791,7 @@
         <v>1443.323046040001</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32447,7 +30857,7 @@
         <v>1483.959560150001</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -40345,6 +38755,6 @@
       <c r="M1151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>